--- a/Partner Resources/ICD10 to CCB Causes/ICD10-to-CCB-Cause.xlsx
+++ b/Partner Resources/ICD10 to CCB Causes/ICD10-to-CCB-Cause.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="758">
-  <si>
-    <t xml:space="preserve">Last Updated: July 1, 2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="773">
+  <si>
+    <t xml:space="preserve">Last Updated: March 28, 2025</t>
   </si>
   <si>
     <t xml:space="preserve">First sheet: Public Health Level Link</t>
@@ -339,7 +339,7 @@
     <t xml:space="preserve">B10</t>
   </si>
   <si>
-    <t xml:space="preserve">Cervical cancer</t>
+    <t xml:space="preserve">Uterine/Cervical cancer</t>
   </si>
   <si>
     <t xml:space="preserve">C53, D069, D260, C54-C55, D070-D072, D259, D261, D269</t>
@@ -432,7 +432,7 @@
     <t xml:space="preserve">C9[1-5]</t>
   </si>
   <si>
-    <t xml:space="preserve">B99</t>
+    <t xml:space="preserve">B98</t>
   </si>
   <si>
     <t xml:space="preserve">Other malignant neoplasms</t>
@@ -445,6 +445,18 @@
     <t xml:space="preserve">C62|D292|D401|D407|C2[3-4]|D135|C32|D020|D141|D380|C73|D34|D440|D093|D098|C45|C17|C2[6-9]|C3[0-1,7-9]|C4[0-1,6-9]|C5[1-2,7-9]|C6[0,3,6,8,9]|C7[4-9]|C80|C97</t>
   </si>
   <si>
+    <t xml:space="preserve">B99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other neoplasms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D000, D014-D019, D024-D0249, D060, D073-D074, D076, D091-D092, D097-D099, D109, D123, D132-D133, D139, D140, D144, D15-D19, D20-D21, D280-D281, D287-D289, D290-D299, D302, D304-D309, D31, D35-D36, D372, D376-D379, D382-D386, D390, D392-D399, D409, D412-D413, D419, D441-D449, D45-D47, D480-D484, D487-D489, D490-D491, D495, D497-D499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D000|D01[4-9]|D02[4,9]|D060|D07[3,4,6]|D09[1-2,7-9]|D109|D13[2-3,9]|D14[0,4]|D123|D1[5-9]|D2[0-1]|D28[0-1,7-9]|D29[0,9]|D30[2,4-9]|D3[1,5-6]|D37[2,6-9]|D38[2-6]|D39[0,2-9]|D409|D41[2-3,9]|D44[1-9]|D4[5-7]|D48[0-4,7-9]|D49[0-1,5,7-9]</t>
+  </si>
+  <si>
     <t xml:space="preserve">C01</t>
   </si>
   <si>
@@ -823,10 +835,10 @@
     <t xml:space="preserve">Other Chronic Conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">D000, D014-D019, D024-D0249, D073-D074, D076, D091-D092, D097-D099, D109, D132-D133, D139, D140, D144, D15-D19, D20-D21, D280-D281, D287-D289, D290-D299, D302, D304-D309, D31, D35-D36, D372, D376-D379, D382-D386, D390, D392-D399, D409, D412-D413, D419, D441-D449, D45-D47, D480-D484, D487-D489, D490-D491, D495, D497-D499, H40, H25-H26, H49-H52, H35.3, H30-H35 (minus H35.3), H53-H54, H90-H91, H00-H21, H27, H43-H47, H55-H61, H69-H83, H92-H93, N40, N20-N23, N25-N39 (minus N340-342,  N390), N41-N45, N47-N51, N46, N97, N60-N64, N75-N76, N80-N96, N98, L00-L98, M05-M06, M15-M19, M10, M45-M48, M50-M54, I271, M00, M02, M08, M11-M13, M20-M43, M60-M724, M727-M99, K02, K05, —, K00, K01, K03, K04, K06-K14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D000|D01[4-9]|D02[4,9]|D07[3,4,6]|D09[1-2,7-9]|D109|D13[2-3,9]|D14[0,4]|D1[5-9]|D2[0-1]|D28[0-1,7-9]|D29[0,9]|D30[2,4-9]|D3[1,5-6]|D37[2,6-9]|D38[2-6]|D39[0,2-9]|D409|D41[2-3,9]|D44[1-9]|D4[5-7]|D48[0-4,7-9]|D49[0-1,5,7-9]|H40|H2[5-6]|H49|H5[0-2]|H353|H3[0-4]|\\bH35\\b|H35[0-2,4-9]|H5[3-4]|H9[0-1]|H0|H1|H2[0-1,7]|H4[3-7]|H5[5-9]|H6[0-1,9]|H7|H8[0-3]|H9[2-3]|N40|N2[0-3]|N2[5-9]|N3[0-3, 5-8]|N34[3-9]|N39[1-9]|N4[1-5,7-9]|N5[0-1]|N46|N97|N6[0-4]|N7[5-6]|N8|N9[0-6,8]|L[0-8]|L9[0-8]|M0[5-6]|M1[5-9]|M10|M4[5-8]|M5[0-4]|I271|M0[0,2,8]|M1[1-3]|M[2-3,6,8-9]|M4[0-3]|M7[0-1,3-9]|M72[0-4,7-9]|K02|K05|-|K0[0-1,3-4,6-9]|K1[0-4]</t>
+    <t xml:space="preserve">H40, H25-H26, H49-H52, H35.3, H30-H35 (minus H35.3), H53-H54, H90-H91, H00-H21, H27, H43-H47, H55-H61, H69-H83, H92-H93, N40, N20-N23, N25-N39 (minus N340-342,  N390), N41-N45, N47-N51, N46, N97, N60-N64, N75-N76, N80-N96, N98, L00-L98, M05-M06, M15-M19, M10, M45-M48, M50-M54, I271, M00, M02, M08, M11-M13, M20-M43, M60-M724, M727-M99, K02, K05, —, K00, K01, K03, K04, K06-K14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H40|H2[5-6]|H49|H5[0-2]|H353|H3[0-4]|\\bH35\\b|H35[0-2,4-9]|H5[3-4]|H9[0-1]|H0|H1|H2[0-1,7]|H4[3-7]|H5[5-9]|H6[0-1,9]|H7|H8[0-3]|H9[2-3]|N40|N2[0-3]|N2[5-9]|N3[0-3, 5-8]|N34[3-9]|N39[1-9]|N4[1-5,7-9]|N5[0-1]|N46|N97|N6[0-4]|N7[5-6]|N8|N9[0-6,8]|L[0-8]|L9[0-8]|M0[5-6]|M1[5-9]|M10|M4[5-8]|M5[0-4]|I271|M0[0,2,8]|M1[1-3]|M[2-3,6,8-9]|M4[0-3]|M7[0-1,3-9]|M72[0-4,7-9]|K02|K05|-|K0[0-1,3-4,6-9]|K1[0-4]</t>
   </si>
   <si>
     <t xml:space="preserve">E01</t>
@@ -898,8 +910,7 @@
     <t xml:space="preserve">Other unintentional injuries</t>
   </si>
   <si>
-    <t xml:space="preserve">X00-X19, W65-W74, W20-W38, W40-W43, W45, W46, W49-W52, W75, W76
-not W3[2-4], W32-W34.9, X33-X38, S, W39, W44, W53-W64, W77-W99, X20-X32, X39, X50-X59, Y40-Y86, Y88, Y892-Y899</t>
+    <t xml:space="preserve">X00-X19, W65-W74, W20-W38, W40-W43, W45, W46, W49-W52, W75, W76, W32-W34.9, X33-X38, S, W39, W44, W53-W64, W77-W99, X20-X32, X39, X50-X59, Y40-Y86, Y88, Y892-Y899</t>
   </si>
   <si>
     <t xml:space="preserve">X[0-1]|W6[5-9]|W7[0-4]|W2|W3[0-1,5-8]|W4[0-3,5-6,9]|W5[0-2]|W7[5-6]|W3[2-4]|X3[3-8]|S|W39|W44|W5[3-9]|W6[0-4]|W7[7-9]|W[8-9]|X[2,5]|X3[0-2,9]|Y[4-7]|Y8[0-6,8]|Y89[2-9]</t>
@@ -935,10 +946,10 @@
     <t xml:space="preserve">Injuries of unknown intent (e.g., unintentional or self-harm), including overdoses and deaths by firearm</t>
   </si>
   <si>
-    <t xml:space="preserve">Y10-14, Y16-34, Y872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1[0-4,6-9]|Y2|Y3[0-4]|Y872</t>
+    <t xml:space="preserve">U070, Y10-14, Y16-34, Y872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U070|Y1[0-4,6-9]|Y2|Y3[0-4]|Y872</t>
   </si>
   <si>
     <t xml:space="preserve">P01</t>
@@ -1414,6 +1425,9 @@
     <t xml:space="preserve">C44|D04</t>
   </si>
   <si>
+    <t xml:space="preserve">B10a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cervix uteri cancer</t>
   </si>
   <si>
@@ -1423,13 +1437,40 @@
     <t xml:space="preserve">C53|D069|D260</t>
   </si>
   <si>
-    <t xml:space="preserve">Corpus uteri cancer</t>
+    <t xml:space="preserve">B10b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corpus and Uterus, NOS</t>
   </si>
   <si>
     <t xml:space="preserve">C54-C55, D070-D072, D259, D261, D269</t>
   </si>
   <si>
     <t xml:space="preserve">C5[4-5]|D07[0-2]|D25|D26[1-9]|D282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B15a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malignant brain and nervous system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C70-C72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7[0-2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B15b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-malignant brain and nervous system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D320-D321, D329-D334, D339, D420-D421, D429-D434, D437-D439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D32[0-1]|D329|D33[0-4,9]|D42[0-1,9]|D43[0-4,7-9]</t>
   </si>
   <si>
     <t xml:space="preserve">B16a</t>
@@ -1907,15 +1948,6 @@
     <t xml:space="preserve">Q0[1-4,6-9]|Q1[0-8]|Q3[0-4,8-9]|Q[4-7]|Q8[0-5,7-9]|Q86[1-9]</t>
   </si>
   <si>
-    <t xml:space="preserve">Other neoplasms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D000, D014-D019, D024-D0249, D073-D074, D076, D091-D092, D097-D099, D109, D132-D133, D139, D140, D144, D15-D19, D20-D21, D280-D281, D287-D289, D290-D299, D302, D304-D309, D31, D35-D36, D372, D376-D379, D382-D386, D390, D392-D399, D409, D412-D413, D419, D441-D449, D45-D47, D480-D484, D487-D489, D490-D491, D495, D497-D499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D000|D01[4-9]|D02[4,9]|D07[3,4,6]|D09[1-2,7-9]|D109|D13[2-3,9]|D14[0,4]|D1[5-9]|D2[0-1]|D28[0-1,7-9]|D29[0,9]|D30[2,4-9]|D3[1,5-6]|D37[2,6-9]|D38[2-6]|D39[0,2-9]|D409|D41[2-3,9]|D44[1-9]|D4[5-7]|D48[0-4,7-9]|D49[0-1,5,7-9]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Glaucoma</t>
   </si>
   <si>
@@ -2183,8 +2215,7 @@
     <t xml:space="preserve">Exposure to mechanical forces</t>
   </si>
   <si>
-    <t xml:space="preserve">W20-W38, W40-W43, W45, W46, W49-W52, W75, W76
-not W3[2-4]</t>
+    <t xml:space="preserve">W20-W38, W40-W43, W45, W46, W49-W52, W75, W76</t>
   </si>
   <si>
     <t xml:space="preserve">W2|W3[0-1,5-8]|W4[0-3,5-6,9]|W5[0-2]|W7[5-6]</t>
@@ -2248,6 +2279,18 @@
   </si>
   <si>
     <t xml:space="preserve">Y355|Y36|Y37|Y891|Y38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaping-related disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y10-14, Y16-34, Y872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1[0-4,6-9]|Y2|Y3[0-4]|Y872</t>
   </si>
   <si>
     <t xml:space="preserve">Preterm birth complications</t>
@@ -2384,8 +2427,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E76" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E77" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E77"/>
   <tableColumns count="5">
     <tableColumn id="1" name="cause_code"/>
     <tableColumn id="2" name="cause_name"/>
@@ -2398,8 +2441,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G206" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:G206"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G208" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G208"/>
   <tableColumns count="7">
     <tableColumn id="1" name="cause_code_detail"/>
     <tableColumn id="2" name="cause_code"/>
@@ -3356,24 +3399,24 @@
         <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" ht="40" customHeight="1">
       <c r="A34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
         <v>147</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" t="s">
         <v>150</v>
-      </c>
-      <c r="E34" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1">
@@ -3390,7 +3433,7 @@
         <v>154</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" ht="40" customHeight="1">
@@ -3407,7 +3450,7 @@
         <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" ht="40" customHeight="1">
@@ -3421,44 +3464,44 @@
         <v>161</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" ht="40" customHeight="1">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" ht="40" customHeight="1">
       <c r="A39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" ht="40" customHeight="1">
@@ -3475,7 +3518,7 @@
         <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" ht="40" customHeight="1">
@@ -3492,7 +3535,7 @@
         <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" ht="40" customHeight="1">
@@ -3509,7 +3552,7 @@
         <v>180</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" ht="40" customHeight="1">
@@ -3526,24 +3569,24 @@
         <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" ht="40" customHeight="1">
       <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="E44" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" ht="40" customHeight="1">
@@ -3557,27 +3600,27 @@
         <v>192</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="40" customHeight="1">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" ht="40" customHeight="1">
@@ -3594,7 +3637,7 @@
         <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" ht="40" customHeight="1">
@@ -3611,7 +3654,7 @@
         <v>204</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" ht="40" customHeight="1">
@@ -3628,7 +3671,7 @@
         <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" ht="40" customHeight="1">
@@ -3645,7 +3688,7 @@
         <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" ht="40" customHeight="1">
@@ -3662,7 +3705,7 @@
         <v>216</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" ht="40" customHeight="1">
@@ -3679,7 +3722,7 @@
         <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" ht="40" customHeight="1">
@@ -3696,7 +3739,7 @@
         <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" ht="40" customHeight="1">
@@ -3713,7 +3756,7 @@
         <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" ht="40" customHeight="1">
@@ -3727,27 +3770,27 @@
         <v>231</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" ht="40" customHeight="1">
       <c r="A56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E56" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" ht="40" customHeight="1">
@@ -3764,7 +3807,7 @@
         <v>239</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" ht="40" customHeight="1">
@@ -3781,7 +3824,7 @@
         <v>243</v>
       </c>
       <c r="E58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" ht="40" customHeight="1">
@@ -3798,7 +3841,7 @@
         <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" ht="40" customHeight="1">
@@ -3815,7 +3858,7 @@
         <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" ht="40" customHeight="1">
@@ -3832,7 +3875,7 @@
         <v>255</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" ht="40" customHeight="1">
@@ -3849,7 +3892,7 @@
         <v>259</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="40" customHeight="1">
@@ -3863,44 +3906,44 @@
         <v>262</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E63" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" ht="40" customHeight="1">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E64" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" ht="40" customHeight="1">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>269</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" ht="40" customHeight="1">
@@ -3917,24 +3960,24 @@
         <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" ht="40" customHeight="1">
       <c r="A67" t="s">
+        <v>274</v>
+      </c>
+      <c r="B67" t="s">
         <v>275</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" t="s">
         <v>278</v>
-      </c>
-      <c r="E67" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="68" ht="40" customHeight="1">
@@ -3951,7 +3994,7 @@
         <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" ht="40" customHeight="1">
@@ -3968,7 +4011,7 @@
         <v>286</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" ht="40" customHeight="1">
@@ -3985,7 +4028,7 @@
         <v>290</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" ht="40" customHeight="1">
@@ -4002,7 +4045,7 @@
         <v>294</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" ht="40" customHeight="1">
@@ -4019,7 +4062,7 @@
         <v>298</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" ht="40" customHeight="1">
@@ -4036,7 +4079,7 @@
         <v>302</v>
       </c>
       <c r="E73" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" ht="40" customHeight="1">
@@ -4053,7 +4096,7 @@
         <v>306</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" ht="40" customHeight="1">
@@ -4070,24 +4113,41 @@
         <v>310</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" ht="40" customHeight="1">
       <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="B76" t="s">
         <v>312</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" t="s">
         <v>315</v>
       </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="77" ht="40" customHeight="1">
+      <c r="A77" t="s">
         <v>316</v>
+      </c>
+      <c r="B77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -4118,13 +4178,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -4164,13 +4224,13 @@
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -4179,21 +4239,21 @@
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -4202,21 +4262,21 @@
         <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -4225,21 +4285,21 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -4248,21 +4308,21 @@
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" ht="40" customHeight="1">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -4271,21 +4331,21 @@
         <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" ht="40" customHeight="1">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -4294,21 +4354,21 @@
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" ht="40" customHeight="1">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -4317,10 +4377,10 @@
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" ht="40" customHeight="1">
@@ -4377,7 +4437,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -4400,7 +4460,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -4409,21 +4469,21 @@
         <v>20</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" ht="40" customHeight="1">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
@@ -4432,21 +4492,21 @@
         <v>20</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" ht="40" customHeight="1">
       <c r="A15" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
@@ -4455,10 +4515,10 @@
         <v>20</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" ht="40" customHeight="1">
@@ -4515,7 +4575,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -4524,10 +4584,10 @@
         <v>20</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" ht="40" customHeight="1">
@@ -4538,7 +4598,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -4547,10 +4607,10 @@
         <v>20</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" ht="40" customHeight="1">
@@ -4561,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -4570,10 +4630,10 @@
         <v>20</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" ht="40" customHeight="1">
@@ -4584,7 +4644,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -4593,10 +4653,10 @@
         <v>20</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" ht="40" customHeight="1">
@@ -4607,7 +4667,7 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -4616,10 +4676,10 @@
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" ht="40" customHeight="1">
@@ -4630,7 +4690,7 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -4639,10 +4699,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" ht="40" customHeight="1">
@@ -4699,7 +4759,7 @@
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D26" t="s">
         <v>58</v>
@@ -4708,10 +4768,10 @@
         <v>20</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" ht="40" customHeight="1">
@@ -4731,10 +4791,10 @@
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" ht="40" customHeight="1">
@@ -4745,7 +4805,7 @@
         <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D28" t="s">
         <v>62</v>
@@ -4754,10 +4814,10 @@
         <v>20</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" ht="40" customHeight="1">
@@ -4777,10 +4837,10 @@
         <v>20</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" ht="40" customHeight="1">
@@ -4791,7 +4851,7 @@
         <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D30" t="s">
         <v>66</v>
@@ -4800,10 +4860,10 @@
         <v>20</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" ht="40" customHeight="1">
@@ -4814,7 +4874,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
         <v>66</v>
@@ -4823,10 +4883,10 @@
         <v>20</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" ht="40" customHeight="1">
@@ -4837,7 +4897,7 @@
         <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
         <v>66</v>
@@ -4846,10 +4906,10 @@
         <v>20</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" ht="40" customHeight="1">
@@ -4860,7 +4920,7 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D33" t="s">
         <v>66</v>
@@ -4883,7 +4943,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D34" t="s">
         <v>66</v>
@@ -4892,10 +4952,10 @@
         <v>20</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1">
@@ -4906,7 +4966,7 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D35" t="s">
         <v>66</v>
@@ -4915,10 +4975,10 @@
         <v>20</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" ht="40" customHeight="1">
@@ -4929,7 +4989,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
@@ -4938,10 +4998,10 @@
         <v>20</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" ht="40" customHeight="1">
@@ -4952,7 +5012,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D37" t="s">
         <v>66</v>
@@ -4961,10 +5021,10 @@
         <v>20</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" ht="40" customHeight="1">
@@ -4975,7 +5035,7 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D38" t="s">
         <v>66</v>
@@ -4984,10 +5044,10 @@
         <v>20</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" ht="40" customHeight="1">
@@ -4998,7 +5058,7 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D39" t="s">
         <v>66</v>
@@ -5007,10 +5067,10 @@
         <v>20</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" ht="40" customHeight="1">
@@ -5021,7 +5081,7 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
@@ -5030,10 +5090,10 @@
         <v>20</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" ht="40" customHeight="1">
@@ -5044,7 +5104,7 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D41" t="s">
         <v>66</v>
@@ -5053,10 +5113,10 @@
         <v>20</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="42" ht="40" customHeight="1">
@@ -5067,7 +5127,7 @@
         <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D42" t="s">
         <v>66</v>
@@ -5076,10 +5136,10 @@
         <v>20</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" ht="40" customHeight="1">
@@ -5090,7 +5150,7 @@
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
@@ -5099,10 +5159,10 @@
         <v>20</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" ht="40" customHeight="1">
@@ -5113,7 +5173,7 @@
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D44" t="s">
         <v>66</v>
@@ -5122,10 +5182,10 @@
         <v>20</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" ht="40" customHeight="1">
@@ -5136,7 +5196,7 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D45" t="s">
         <v>66</v>
@@ -5145,10 +5205,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" ht="40" customHeight="1">
@@ -5159,7 +5219,7 @@
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D46" t="s">
         <v>66</v>
@@ -5168,10 +5228,10 @@
         <v>20</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" ht="40" customHeight="1">
@@ -5182,7 +5242,7 @@
         <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D47" t="s">
         <v>66</v>
@@ -5191,10 +5251,10 @@
         <v>20</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" ht="40" customHeight="1">
@@ -5205,7 +5265,7 @@
         <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D48" t="s">
         <v>66</v>
@@ -5214,10 +5274,10 @@
         <v>20</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" ht="40" customHeight="1">
@@ -5228,7 +5288,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D49" t="s">
         <v>66</v>
@@ -5237,10 +5297,10 @@
         <v>20</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" ht="40" customHeight="1">
@@ -5251,7 +5311,7 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -5260,10 +5320,10 @@
         <v>20</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" ht="40" customHeight="1">
@@ -5274,7 +5334,7 @@
         <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -5283,10 +5343,10 @@
         <v>20</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" ht="40" customHeight="1">
@@ -5297,7 +5357,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
@@ -5306,10 +5366,10 @@
         <v>20</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" ht="40" customHeight="1">
@@ -5320,7 +5380,7 @@
         <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D53" t="s">
         <v>66</v>
@@ -5329,10 +5389,10 @@
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" ht="40" customHeight="1">
@@ -5343,7 +5403,7 @@
         <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
         <v>66</v>
@@ -5352,10 +5412,10 @@
         <v>20</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" ht="40" customHeight="1">
@@ -5366,7 +5426,7 @@
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D55" t="s">
         <v>66</v>
@@ -5375,10 +5435,10 @@
         <v>20</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" ht="40" customHeight="1">
@@ -5389,7 +5449,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D56" t="s">
         <v>66</v>
@@ -5398,10 +5458,10 @@
         <v>20</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" ht="40" customHeight="1">
@@ -5412,7 +5472,7 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D57" t="s">
         <v>66</v>
@@ -5421,10 +5481,10 @@
         <v>20</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" ht="40" customHeight="1">
@@ -5435,7 +5495,7 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D58" t="s">
         <v>66</v>
@@ -5444,10 +5504,10 @@
         <v>20</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" ht="40" customHeight="1">
@@ -5467,10 +5527,10 @@
         <v>73</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" ht="40" customHeight="1">
@@ -5481,7 +5541,7 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D60" t="s">
         <v>70</v>
@@ -5490,10 +5550,10 @@
         <v>73</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" ht="40" customHeight="1">
@@ -5504,7 +5564,7 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D61" t="s">
         <v>70</v>
@@ -5513,10 +5573,10 @@
         <v>73</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" ht="40" customHeight="1">
@@ -5527,7 +5587,7 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D62" t="s">
         <v>70</v>
@@ -5536,10 +5596,10 @@
         <v>73</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63" ht="40" customHeight="1">
@@ -5688,7 +5748,7 @@
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D69" t="s">
         <v>99</v>
@@ -5697,10 +5757,10 @@
         <v>73</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" ht="40" customHeight="1">
@@ -5711,7 +5771,7 @@
         <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D70" t="s">
         <v>99</v>
@@ -5720,10 +5780,10 @@
         <v>73</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" ht="40" customHeight="1">
@@ -5751,13 +5811,13 @@
     </row>
     <row r="72" ht="40" customHeight="1">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s">
         <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D72" t="s">
         <v>107</v>
@@ -5766,21 +5826,21 @@
         <v>73</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" ht="40" customHeight="1">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s">
         <v>106</v>
       </c>
       <c r="C73" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D73" t="s">
         <v>107</v>
@@ -5789,10 +5849,10 @@
         <v>73</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" ht="40" customHeight="1">
@@ -5889,13 +5949,13 @@
     </row>
     <row r="78" ht="40" customHeight="1">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s">
         <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>477</v>
       </c>
       <c r="D78" t="s">
         <v>127</v>
@@ -5904,44 +5964,44 @@
         <v>73</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>128</v>
+        <v>478</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>129</v>
+        <v>479</v>
       </c>
     </row>
     <row r="79" ht="40" customHeight="1">
       <c r="A79" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E79" t="s">
         <v>73</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" ht="40" customHeight="1">
       <c r="A80" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s">
         <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="D80" t="s">
         <v>131</v>
@@ -5950,21 +6010,21 @@
         <v>73</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" ht="40" customHeight="1">
       <c r="A81" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s">
         <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D81" t="s">
         <v>131</v>
@@ -5973,56 +6033,56 @@
         <v>73</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" ht="40" customHeight="1">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>492</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
         <v>73</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>136</v>
+        <v>493</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>137</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" ht="40" customHeight="1">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
-        <v>481</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
         <v>73</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>482</v>
+        <v>136</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>483</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" ht="40" customHeight="1">
@@ -6033,7 +6093,7 @@
         <v>138</v>
       </c>
       <c r="C84" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="D84" t="s">
         <v>139</v>
@@ -6042,10 +6102,10 @@
         <v>73</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" ht="40" customHeight="1">
@@ -6056,7 +6116,7 @@
         <v>138</v>
       </c>
       <c r="C85" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="D85" t="s">
         <v>139</v>
@@ -6065,10 +6125,10 @@
         <v>73</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" ht="40" customHeight="1">
@@ -6079,7 +6139,7 @@
         <v>138</v>
       </c>
       <c r="C86" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="D86" t="s">
         <v>139</v>
@@ -6088,10 +6148,10 @@
         <v>73</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" ht="40" customHeight="1">
@@ -6102,7 +6162,7 @@
         <v>138</v>
       </c>
       <c r="C87" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D87" t="s">
         <v>139</v>
@@ -6111,10 +6171,10 @@
         <v>73</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" ht="40" customHeight="1">
@@ -6125,7 +6185,7 @@
         <v>138</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>507</v>
       </c>
       <c r="D88" t="s">
         <v>139</v>
@@ -6134,240 +6194,240 @@
         <v>73</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" ht="40" customHeight="1">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E89" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>145</v>
+        <v>510</v>
       </c>
     </row>
     <row r="90" ht="40" customHeight="1">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" ht="40" customHeight="1">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" ht="40" customHeight="1">
       <c r="A92" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D92" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" ht="40" customHeight="1">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" ht="40" customHeight="1">
       <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" t="s">
+        <v>160</v>
+      </c>
+      <c r="D94" t="s">
+        <v>160</v>
+      </c>
+      <c r="E94" t="s">
+        <v>150</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B94" t="s">
-        <v>162</v>
-      </c>
-      <c r="C94" t="s">
-        <v>163</v>
-      </c>
-      <c r="D94" t="s">
-        <v>163</v>
-      </c>
-      <c r="E94" t="s">
-        <v>146</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="95" ht="40" customHeight="1">
       <c r="A95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B95" t="s">
+      <c r="G95" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C95" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" t="s">
-        <v>166</v>
-      </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="96" ht="40" customHeight="1">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E96" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" ht="40" customHeight="1">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E97" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" ht="40" customHeight="1">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>497</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E98" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>498</v>
+        <v>175</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>499</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" ht="40" customHeight="1">
@@ -6384,13 +6444,13 @@
         <v>178</v>
       </c>
       <c r="E99" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>500</v>
+        <v>179</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>501</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" ht="40" customHeight="1">
@@ -6401,88 +6461,88 @@
         <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>511</v>
       </c>
       <c r="D100" t="s">
         <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>183</v>
+        <v>512</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>184</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" ht="40" customHeight="1">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>502</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="102" ht="40" customHeight="1">
       <c r="A102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" t="s">
         <v>186</v>
       </c>
-      <c r="B102" t="s">
+      <c r="D102" t="s">
         <v>186</v>
       </c>
-      <c r="C102" t="s">
-        <v>504</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E102" t="s">
-        <v>185</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>505</v>
-      </c>
       <c r="G102" s="4" t="s">
-        <v>506</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" ht="40" customHeight="1">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E103" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" ht="40" customHeight="1">
@@ -6493,479 +6553,479 @@
         <v>190</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>518</v>
       </c>
       <c r="D104" t="s">
         <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>192</v>
+        <v>519</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>192</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" ht="40" customHeight="1">
       <c r="A105" t="s">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E105" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" ht="40" customHeight="1">
       <c r="A106" t="s">
-        <v>514</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>515</v>
+        <v>195</v>
       </c>
       <c r="D106" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E106" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>516</v>
+        <v>196</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>517</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" ht="40" customHeight="1">
       <c r="A107" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E107" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="108" ht="40" customHeight="1">
       <c r="A108" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="D108" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" ht="40" customHeight="1">
       <c r="A109" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C109" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D109" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E109" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="110" ht="40" customHeight="1">
       <c r="A110" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B110" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E110" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" ht="40" customHeight="1">
       <c r="A111" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B111" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C111" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D111" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E111" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" ht="40" customHeight="1">
       <c r="A112" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="D112" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E112" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113" ht="40" customHeight="1">
       <c r="A113" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D113" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E113" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" ht="40" customHeight="1">
       <c r="A114" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E114" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" ht="40" customHeight="1">
       <c r="A115" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B115" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C115" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D115" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E115" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" ht="40" customHeight="1">
       <c r="A116" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B116" t="s">
         <v>197</v>
       </c>
       <c r="C116" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D116" t="s">
         <v>198</v>
       </c>
       <c r="E116" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="117" ht="40" customHeight="1">
       <c r="A117" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B117" t="s">
         <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D117" t="s">
         <v>198</v>
       </c>
       <c r="E117" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" ht="40" customHeight="1">
       <c r="A118" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C118" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D118" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" ht="40" customHeight="1">
       <c r="A119" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C119" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E119" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="120" ht="40" customHeight="1">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>573</v>
       </c>
       <c r="B120" t="s">
         <v>201</v>
       </c>
       <c r="C120" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="D120" t="s">
         <v>202</v>
       </c>
       <c r="E120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" ht="40" customHeight="1">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>576</v>
       </c>
       <c r="B121" t="s">
         <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="D121" t="s">
         <v>202</v>
       </c>
       <c r="E121" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" ht="40" customHeight="1">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D122" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E122" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" ht="40" customHeight="1">
       <c r="A123" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C123" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="D123" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E123" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" ht="40" customHeight="1">
       <c r="A124" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>202</v>
+        <v>584</v>
       </c>
       <c r="D124" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E124" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="125" ht="40" customHeight="1">
@@ -6976,42 +7036,42 @@
         <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>206</v>
+        <v>586</v>
       </c>
       <c r="D125" t="s">
         <v>206</v>
       </c>
       <c r="E125" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>207</v>
+        <v>587</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>208</v>
+        <v>587</v>
       </c>
     </row>
     <row r="126" ht="40" customHeight="1">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B126" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C126" t="s">
-        <v>576</v>
+        <v>206</v>
       </c>
       <c r="D126" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E126" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" ht="40" customHeight="1">
@@ -7022,272 +7082,272 @@
         <v>209</v>
       </c>
       <c r="C127" t="s">
-        <v>579</v>
+        <v>210</v>
       </c>
       <c r="D127" t="s">
         <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>580</v>
+        <v>211</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>581</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128" ht="40" customHeight="1">
       <c r="A128" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B128" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C128" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D128" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E128" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" ht="40" customHeight="1">
       <c r="A129" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C129" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D129" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E129" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="130" ht="40" customHeight="1">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C130" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="D130" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E130" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="131" ht="40" customHeight="1">
       <c r="A131" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B131" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D131" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E131" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="132" ht="40" customHeight="1">
       <c r="A132" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C132" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="D132" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="133" ht="40" customHeight="1">
       <c r="A133" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C133" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="D133" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E133" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="134" ht="40" customHeight="1">
       <c r="A134" t="s">
-        <v>599</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
         <v>213</v>
       </c>
       <c r="C134" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="D134" t="s">
         <v>214</v>
       </c>
       <c r="E134" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="135" ht="40" customHeight="1">
       <c r="A135" t="s">
-        <v>603</v>
+        <v>213</v>
       </c>
       <c r="B135" t="s">
         <v>213</v>
       </c>
       <c r="C135" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D135" t="s">
         <v>214</v>
       </c>
       <c r="E135" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" ht="40" customHeight="1">
       <c r="A136" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E136" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="137" ht="40" customHeight="1">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>617</v>
       </c>
       <c r="B137" t="s">
         <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>218</v>
+        <v>618</v>
       </c>
       <c r="D137" t="s">
         <v>218</v>
       </c>
       <c r="E137" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>219</v>
+        <v>619</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>220</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" ht="40" customHeight="1">
       <c r="A138" t="s">
-        <v>221</v>
+        <v>621</v>
       </c>
       <c r="B138" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C138" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="D138" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E138" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" ht="40" customHeight="1">
@@ -7298,111 +7358,111 @@
         <v>221</v>
       </c>
       <c r="C139" t="s">
-        <v>614</v>
+        <v>222</v>
       </c>
       <c r="D139" t="s">
         <v>222</v>
       </c>
       <c r="E139" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>615</v>
+        <v>223</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>616</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" ht="40" customHeight="1">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B140" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="D140" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E140" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141" ht="40" customHeight="1">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B141" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="D141" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E141" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" ht="40" customHeight="1">
       <c r="A142" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B142" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="D142" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E142" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" ht="40" customHeight="1">
       <c r="A143" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="D143" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E143" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="144" ht="40" customHeight="1">
@@ -7413,778 +7473,778 @@
         <v>225</v>
       </c>
       <c r="C144" t="s">
-        <v>226</v>
+        <v>636</v>
       </c>
       <c r="D144" t="s">
         <v>226</v>
       </c>
       <c r="E144" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>227</v>
+        <v>637</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>228</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" ht="40" customHeight="1">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B145" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s">
-        <v>230</v>
+        <v>639</v>
       </c>
       <c r="D145" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E145" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>231</v>
+        <v>640</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>231</v>
+        <v>641</v>
       </c>
     </row>
     <row r="146" ht="40" customHeight="1">
       <c r="A146" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146" t="s">
+        <v>189</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="B146" t="s">
-        <v>232</v>
-      </c>
-      <c r="C146" t="s">
-        <v>233</v>
-      </c>
-      <c r="D146" t="s">
-        <v>233</v>
-      </c>
-      <c r="E146" t="s">
-        <v>185</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="147" ht="40" customHeight="1">
       <c r="A147" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D147" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E147" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" ht="40" customHeight="1">
       <c r="A148" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D148" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E148" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" ht="40" customHeight="1">
       <c r="A149" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B149" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C149" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D149" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E149" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150" ht="40" customHeight="1">
       <c r="A150" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B150" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C150" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D150" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E150" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" ht="40" customHeight="1">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B151" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C151" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D151" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E151" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" ht="40" customHeight="1">
       <c r="A152" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B152" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C152" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D152" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E152" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" ht="40" customHeight="1">
       <c r="A153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B153" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C153" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D153" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E153" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" ht="40" customHeight="1">
       <c r="A154" t="s">
+        <v>260</v>
+      </c>
+      <c r="B154" t="s">
+        <v>260</v>
+      </c>
+      <c r="C154" t="s">
+        <v>261</v>
+      </c>
+      <c r="D154" t="s">
+        <v>261</v>
+      </c>
+      <c r="E154" t="s">
+        <v>189</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="B154" t="s">
-        <v>263</v>
-      </c>
-      <c r="C154" t="s">
-        <v>264</v>
-      </c>
-      <c r="D154" t="s">
-        <v>264</v>
-      </c>
-      <c r="E154" t="s">
-        <v>185</v>
-      </c>
-      <c r="F154" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="155" ht="40" customHeight="1">
       <c r="A155" t="s">
+        <v>264</v>
+      </c>
+      <c r="B155" t="s">
+        <v>264</v>
+      </c>
+      <c r="C155" t="s">
+        <v>265</v>
+      </c>
+      <c r="D155" t="s">
+        <v>265</v>
+      </c>
+      <c r="E155" t="s">
+        <v>189</v>
+      </c>
+      <c r="F155" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B155" t="s">
+      <c r="G155" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="C155" t="s">
-        <v>628</v>
-      </c>
-      <c r="D155" t="s">
-        <v>267</v>
-      </c>
-      <c r="E155" t="s">
-        <v>185</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="156" ht="40" customHeight="1">
       <c r="A156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C156" t="s">
-        <v>631</v>
+        <v>268</v>
       </c>
       <c r="D156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E156" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>632</v>
+        <v>269</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>632</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" ht="40" customHeight="1">
       <c r="A157" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C157" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="D157" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E157" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="158" ht="40" customHeight="1">
       <c r="A158" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C158" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D158" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E158" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="159" ht="40" customHeight="1">
       <c r="A159" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C159" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D159" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E159" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="160" ht="40" customHeight="1">
       <c r="A160" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B160" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C160" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E160" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="161" ht="40" customHeight="1">
       <c r="A161" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C161" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D161" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E161" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" ht="40" customHeight="1">
       <c r="A162" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C162" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E162" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
     </row>
     <row r="163" ht="40" customHeight="1">
       <c r="A163" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C163" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E163" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="164" ht="40" customHeight="1">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C164" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="D164" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E164" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="165" ht="40" customHeight="1">
       <c r="A165" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C165" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D165" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E165" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="166" ht="40" customHeight="1">
       <c r="A166" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C166" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D166" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E166" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="167" ht="40" customHeight="1">
       <c r="A167" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C167" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E167" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="168" ht="40" customHeight="1">
       <c r="A168" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C168" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E168" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" ht="40" customHeight="1">
       <c r="A169" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C169" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D169" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E169" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
     </row>
     <row r="170" ht="40" customHeight="1">
       <c r="A170" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C170" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D170" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E170" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="171" ht="40" customHeight="1">
       <c r="A171" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C171" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D171" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E171" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="172" ht="40" customHeight="1">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C172" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="D172" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E172" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
     </row>
     <row r="173" ht="40" customHeight="1">
       <c r="A173" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C173" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D173" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E173" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="174" ht="40" customHeight="1">
       <c r="A174" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C174" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D174" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E174" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="175" ht="40" customHeight="1">
       <c r="A175" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B175" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C175" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="D175" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E175" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="176" ht="40" customHeight="1">
       <c r="A176" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C176" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D176" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E176" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
     </row>
     <row r="177" ht="40" customHeight="1">
       <c r="A177" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B177" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C177" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="D177" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E177" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="178" ht="40" customHeight="1">
@@ -8195,226 +8255,226 @@
         <v>270</v>
       </c>
       <c r="C178" t="s">
-        <v>271</v>
+        <v>700</v>
       </c>
       <c r="D178" t="s">
         <v>271</v>
       </c>
       <c r="E178" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>272</v>
+        <v>701</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>273</v>
+        <v>702</v>
       </c>
     </row>
     <row r="179" ht="40" customHeight="1">
       <c r="A179" t="s">
+        <v>274</v>
+      </c>
+      <c r="B179" t="s">
+        <v>274</v>
+      </c>
+      <c r="C179" t="s">
         <v>275</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>275</v>
       </c>
-      <c r="C179" t="s">
+      <c r="E179" t="s">
+        <v>278</v>
+      </c>
+      <c r="F179" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D179" t="s">
-        <v>276</v>
-      </c>
-      <c r="E179" t="s">
-        <v>274</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>692</v>
-      </c>
       <c r="G179" s="4" t="s">
-        <v>693</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" ht="40" customHeight="1">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C180" t="s">
-        <v>694</v>
+        <v>280</v>
       </c>
       <c r="D180" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E180" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="181" ht="40" customHeight="1">
       <c r="A181" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C181" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="D181" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E181" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
     </row>
     <row r="182" ht="40" customHeight="1">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C182" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="D182" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E182" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="183" ht="40" customHeight="1">
       <c r="A183" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C183" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D183" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E183" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
     </row>
     <row r="184" ht="40" customHeight="1">
       <c r="A184" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B184" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C184" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="D184" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E184" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="185" ht="40" customHeight="1">
       <c r="A185" t="s">
-        <v>705</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
         <v>279</v>
       </c>
       <c r="C185" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D185" t="s">
         <v>280</v>
       </c>
       <c r="E185" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="186" ht="40" customHeight="1">
       <c r="A186" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C186" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D186" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E186" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="187" ht="40" customHeight="1">
       <c r="A187" t="s">
-        <v>283</v>
+        <v>720</v>
       </c>
       <c r="B187" t="s">
         <v>283</v>
       </c>
       <c r="C187" t="s">
-        <v>284</v>
+        <v>721</v>
       </c>
       <c r="D187" t="s">
         <v>284</v>
       </c>
       <c r="E187" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>285</v>
+        <v>722</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>286</v>
+        <v>723</v>
       </c>
     </row>
     <row r="188" ht="40" customHeight="1">
@@ -8431,7 +8491,7 @@
         <v>288</v>
       </c>
       <c r="E188" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>289</v>
@@ -8448,134 +8508,134 @@
         <v>291</v>
       </c>
       <c r="C189" t="s">
-        <v>713</v>
+        <v>292</v>
       </c>
       <c r="D189" t="s">
         <v>292</v>
       </c>
       <c r="E189" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>714</v>
+        <v>293</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>715</v>
+        <v>294</v>
       </c>
     </row>
     <row r="190" ht="40" customHeight="1">
       <c r="A190" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B190" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C190" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="D190" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E190" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
     </row>
     <row r="191" ht="40" customHeight="1">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B191" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C191" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D191" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E191" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
     </row>
     <row r="192" ht="40" customHeight="1">
       <c r="A192" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C192" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="D192" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E192" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
     </row>
     <row r="193" ht="40" customHeight="1">
       <c r="A193" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B193" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C193" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="D193" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E193" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
     </row>
     <row r="194" ht="40" customHeight="1">
       <c r="A194" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C194" t="s">
-        <v>292</v>
+        <v>736</v>
       </c>
       <c r="D194" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E194" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" ht="40" customHeight="1">
@@ -8592,105 +8652,105 @@
         <v>296</v>
       </c>
       <c r="E195" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>297</v>
+        <v>739</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>298</v>
+        <v>740</v>
       </c>
     </row>
     <row r="196" ht="40" customHeight="1">
       <c r="A196" t="s">
-        <v>730</v>
+        <v>299</v>
       </c>
       <c r="B196" t="s">
         <v>299</v>
       </c>
       <c r="C196" t="s">
-        <v>731</v>
+        <v>300</v>
       </c>
       <c r="D196" t="s">
         <v>300</v>
       </c>
       <c r="E196" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>732</v>
+        <v>301</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>733</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" ht="40" customHeight="1">
       <c r="A197" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B197" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C197" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="D197" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E197" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
     </row>
     <row r="198" ht="40" customHeight="1">
       <c r="A198" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B198" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C198" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="D198" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E198" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199" ht="40" customHeight="1">
       <c r="A199" t="s">
-        <v>303</v>
+        <v>749</v>
       </c>
       <c r="B199" t="s">
         <v>303</v>
       </c>
       <c r="C199" t="s">
-        <v>304</v>
+        <v>750</v>
       </c>
       <c r="D199" t="s">
         <v>304</v>
       </c>
       <c r="E199" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>305</v>
+        <v>751</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>306</v>
+        <v>752</v>
       </c>
     </row>
     <row r="200" ht="40" customHeight="1">
@@ -8701,19 +8761,19 @@
         <v>307</v>
       </c>
       <c r="C200" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="D200" t="s">
         <v>308</v>
       </c>
       <c r="E200" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
     </row>
     <row r="201" ht="40" customHeight="1">
@@ -8724,134 +8784,180 @@
         <v>307</v>
       </c>
       <c r="C201" t="s">
-        <v>745</v>
+        <v>308</v>
       </c>
       <c r="D201" t="s">
         <v>308</v>
       </c>
       <c r="E201" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="202" ht="40" customHeight="1">
       <c r="A202" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B202" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C202" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="D202" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E202" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
     </row>
     <row r="203" ht="40" customHeight="1">
       <c r="A203" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B203" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C203" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="D203" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E203" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="204" ht="40" customHeight="1">
       <c r="A204" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B204" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C204" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="D204" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E204" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="205" ht="40" customHeight="1">
       <c r="A205" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C205" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="D205" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E205" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="206" ht="40" customHeight="1">
       <c r="A206" t="s">
+        <v>311</v>
+      </c>
+      <c r="B206" t="s">
+        <v>311</v>
+      </c>
+      <c r="C206" t="s">
+        <v>768</v>
+      </c>
+      <c r="D206" t="s">
         <v>312</v>
       </c>
-      <c r="B206" t="s">
+      <c r="E206" t="s">
+        <v>315</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="207" ht="40" customHeight="1">
+      <c r="A207" t="s">
+        <v>311</v>
+      </c>
+      <c r="B207" t="s">
+        <v>311</v>
+      </c>
+      <c r="C207" t="s">
+        <v>771</v>
+      </c>
+      <c r="D207" t="s">
         <v>312</v>
       </c>
-      <c r="C206" t="s">
-        <v>313</v>
-      </c>
-      <c r="D206" t="s">
-        <v>313</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="E207" t="s">
+        <v>315</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="G207" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="208" ht="40" customHeight="1">
+      <c r="A208" t="s">
         <v>316</v>
       </c>
-      <c r="F206" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G206" s="4" t="s">
-        <v>315</v>
+      <c r="B208" t="s">
+        <v>316</v>
+      </c>
+      <c r="C208" t="s">
+        <v>317</v>
+      </c>
+      <c r="D208" t="s">
+        <v>317</v>
+      </c>
+      <c r="E208" t="s">
+        <v>320</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
